--- a/dataSet/mac_os_server_MGTV.xlsx
+++ b/dataSet/mac_os_server_MGTV.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88D6ACB-58F4-462E-956B-B53A62B35676}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,6 +66,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -116,7 +116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -149,9 +149,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +201,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,202 +393,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:CB1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0</v>
+        <v>0.68808006556562895</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>1.32591409821943</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>2.3728737997375902</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>3.9784697628412702</v>
       </c>
       <c r="E1">
-        <v>13</v>
+        <v>6.2979215118367602</v>
       </c>
       <c r="F1">
-        <v>13</v>
+        <v>9.4772835028547195</v>
       </c>
       <c r="G1">
-        <v>13</v>
+        <v>13.6393582951442</v>
       </c>
       <c r="H1">
-        <v>16</v>
+        <v>18.872827234465898</v>
       </c>
       <c r="I1">
-        <v>18</v>
+        <v>25.226023145517399</v>
       </c>
       <c r="J1">
-        <v>60</v>
+        <v>32.705621485424402</v>
       </c>
       <c r="K1">
-        <v>60</v>
+        <v>41.279581455797299</v>
       </c>
       <c r="L1">
-        <v>80</v>
+        <v>50.883103713164097</v>
       </c>
       <c r="M1">
-        <v>84</v>
+        <v>61.426200172544398</v>
       </c>
       <c r="N1">
-        <v>96</v>
+        <v>72.8016027995982</v>
       </c>
       <c r="O1">
-        <v>96</v>
+        <v>84.892043437957994</v>
       </c>
       <c r="P1">
-        <v>97</v>
+        <v>97.576298167178294</v>
       </c>
       <c r="Q1">
-        <v>99</v>
+        <v>110.733725069846</v>
       </c>
       <c r="R1">
-        <v>114</v>
+        <v>124.24728985257001</v>
       </c>
       <c r="S1">
-        <v>114</v>
+        <v>138.00525653541899</v>
       </c>
       <c r="T1">
-        <v>118</v>
+        <v>151.90182667276</v>
       </c>
       <c r="U1">
-        <v>141</v>
+        <v>165.83705536565</v>
       </c>
       <c r="V1">
-        <v>153</v>
+        <v>179.716372155057</v>
       </c>
       <c r="W1">
-        <v>180</v>
+        <v>193.45000358807999</v>
       </c>
       <c r="X1">
-        <v>190</v>
+        <v>206.952541712732</v>
       </c>
       <c r="Y1">
-        <v>213</v>
+        <v>220.14283549663</v>
       </c>
       <c r="Z1">
-        <v>220</v>
+        <v>232.94430497119501</v>
       </c>
       <c r="AA1">
-        <v>229</v>
+        <v>245.28569576425599</v>
       </c>
       <c r="AB1">
-        <v>243</v>
+        <v>257.10221125646001</v>
       </c>
       <c r="AC1">
-        <v>243</v>
+        <v>268.33688959722298</v>
       </c>
       <c r="AD1">
-        <v>280</v>
+        <v>278.94204299533499</v>
       </c>
       <c r="AE1">
-        <v>281</v>
+        <v>288.88055555811098</v>
       </c>
       <c r="AF1">
-        <v>295</v>
+        <v>298.126847944019</v>
       </c>
       <c r="AG1">
-        <v>308</v>
+        <v>306.66736047119798</v>
       </c>
       <c r="AH1">
-        <v>319</v>
+        <v>314.50047272086499</v>
       </c>
       <c r="AI1">
-        <v>320</v>
+        <v>321.63585384869702</v>
       </c>
       <c r="AJ1">
-        <v>339</v>
+        <v>328.09330906965499</v>
       </c>
       <c r="AK1">
-        <v>348</v>
+        <v>333.90124178371502</v>
       </c>
       <c r="AL1">
-        <v>356</v>
+        <v>339.09488044103301</v>
       </c>
       <c r="AM1">
-        <v>359</v>
+        <v>343.71442355334801</v>
       </c>
       <c r="AN1">
-        <v>359</v>
+        <v>347.803239515771</v>
       </c>
       <c r="AO1">
-        <v>360</v>
+        <v>351.40622744448598</v>
       </c>
       <c r="AP1">
-        <v>363</v>
+        <v>354.56840904750601</v>
       </c>
       <c r="AQ1">
-        <v>363</v>
+        <v>357.33378638336501</v>
       </c>
       <c r="AR1">
-        <v>363</v>
+        <v>359.744470764553</v>
       </c>
       <c r="AS1">
-        <v>364</v>
+        <v>361.84006620955398</v>
       </c>
       <c r="AT1">
-        <v>365</v>
+        <v>363.657276993918</v>
       </c>
       <c r="AU1">
-        <v>365</v>
+        <v>365.22970199285902</v>
       </c>
       <c r="AV1">
-        <v>365</v>
+        <v>366.587777035307</v>
       </c>
       <c r="AW1">
-        <v>365</v>
+        <v>367.75882868331598</v>
       </c>
       <c r="AX1">
-        <v>365</v>
+        <v>368.76720718889499</v>
       </c>
       <c r="AY1">
-        <v>366</v>
+        <v>369.63447167602402</v>
       </c>
       <c r="AZ1">
-        <v>367</v>
+        <v>370.37960602001198</v>
       </c>
       <c r="BA1">
-        <v>370</v>
+        <v>371.01924893565098</v>
       </c>
       <c r="BB1">
-        <v>370</v>
+        <v>371.56792616996597</v>
       </c>
       <c r="BC1">
-        <v>370</v>
+        <v>372.03827632668998</v>
       </c>
       <c r="BD1">
-        <v>370</v>
+        <v>372.44126473843602</v>
       </c>
       <c r="BE1">
-        <v>370</v>
+        <v>372.78638202042299</v>
       </c>
       <c r="BF1">
-        <v>371</v>
+        <v>373.081825585513</v>
       </c>
       <c r="BG1">
-        <v>371</v>
+        <v>373.33466357930098</v>
       </c>
       <c r="BH1">
-        <v>371</v>
+        <v>373.55098150487203</v>
       </c>
       <c r="BI1">
-        <v>372</v>
+        <v>373.73601233623702</v>
       </c>
       <c r="BJ1">
-        <v>373</v>
+        <v>373.89425123933597</v>
       </c>
       <c r="BK1">
-        <v>373</v>
+        <v>374.02955618794198</v>
+      </c>
+      <c r="BL1">
+        <v>374.14523582383799</v>
+      </c>
+      <c r="BM1">
+        <v>374.24412590076702</v>
+      </c>
+      <c r="BN1">
+        <v>374.32865559522003</v>
+      </c>
+      <c r="BO1">
+        <v>374.40090488282999</v>
+      </c>
+      <c r="BP1">
+        <v>374.46265408001301</v>
+      </c>
+      <c r="BQ1">
+        <v>374.51542654566498</v>
+      </c>
+      <c r="BR1">
+        <v>374.56052543326598</v>
+      </c>
+      <c r="BS1">
+        <v>374.59906528350399</v>
+      </c>
+      <c r="BT1">
+        <v>374.63199915382199</v>
+      </c>
+      <c r="BU1">
+        <v>374.66014189536003</v>
+      </c>
+      <c r="BV1">
+        <v>374.68419011003402</v>
+      </c>
+      <c r="BW1">
+        <v>374.70473925097002</v>
+      </c>
+      <c r="BX1">
+        <v>374.72229826783899</v>
+      </c>
+      <c r="BY1">
+        <v>374.73730214433999</v>
+      </c>
+      <c r="BZ1">
+        <v>374.75012262746299</v>
+      </c>
+      <c r="CA1">
+        <v>374.76107740667499</v>
+      </c>
+      <c r="CB1">
+        <v>374.770437965089</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -577,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
